--- a/biology/Zoologie/Colibri_à_gorge_pourprée/Colibri_à_gorge_pourprée.xlsx
+++ b/biology/Zoologie/Colibri_à_gorge_pourprée/Colibri_à_gorge_pourprée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_pourpr%C3%A9e</t>
+          <t>Colibri_à_gorge_pourprée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lampornis calolaemus
 Le Colibri à gorge pourprée (Lampornis calolaemus, anciennement Lampornis calolaema) est une espèce de colibris (famille des Trochilidae) présents au Costa Rica, Nicaragua et Panama.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_pourpr%C3%A9e</t>
+          <t>Colibri_à_gorge_pourprée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 10,5 cm de longueur. Il présente un dimorphisme sexuel. Le mâle a un plumage essentiellement vert avec la gorge violette et la queue noirâtre. La femelle a le dessous roux et l'extrémité de la queue blanche. Un trait blanc marque l'arrière de chaque œil chez les deux sexes.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_pourpr%C3%A9e</t>
+          <t>Colibri_à_gorge_pourprée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts humides de montagne et les sites où existaient auparavant des forêts, lourdement dégradées depuis.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_pourpr%C3%A9e</t>
+          <t>Colibri_à_gorge_pourprée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
 Lampornis calolaemus calolaemus (Salvin), 1865 ;
